--- a/metadata/gndset_metadata.xlsx
+++ b/metadata/gndset_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimberly.cressman\Desktop\Main Docs\NSC - R for Sentinel Sites\SETr_workflow_development\Reserve_Template\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimberly.cressman\Desktop\Main Docs\NSC - R for Sentinel Sites\SETr_national_synthesis\metadata\reserve_level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6462003-4065-43D2-B3A8-8584F07B8880}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9C84B-F58D-4488-A9C7-204F38BE7E9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{4A4B69C9-BB23-4AA8-A4F2-3F853E002230}"/>
+    <workbookView xWindow="-18390" yWindow="900" windowWidth="16200" windowHeight="12240" xr2:uid="{4A4B69C9-BB23-4AA8-A4F2-3F853E002230}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="83">
   <si>
     <t>Unique SET ID</t>
   </si>
@@ -283,18 +283,6 @@
   </si>
   <si>
     <t>Distichilis spicata</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>JURO_High sites formerly "Panne"</t>
-  </si>
-  <si>
-    <t>JURO_Low formerly "Lower Juncus" - JURO1-3</t>
-  </si>
-  <si>
-    <t>JURO_Mid formerly "Upper Juncus" - JURO4-6</t>
   </si>
 </sst>
 </file>
@@ -791,10 +779,10 @@
   <dimension ref="A1:AT944"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -971,9 +959,6 @@
       <c r="AP1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1024,9 +1009,7 @@
       <c r="Z2" s="27"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="28"/>
-      <c r="AC2">
-        <v>0.39836797000000002</v>
-      </c>
+      <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
@@ -1090,9 +1073,7 @@
       <c r="Z3" s="27"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="28"/>
-      <c r="AC3">
-        <v>0.47088882199999998</v>
-      </c>
+      <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="29"/>
       <c r="AF3" s="29"/>
@@ -1156,9 +1137,7 @@
       <c r="Z4" s="27"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="28"/>
-      <c r="AC4">
-        <v>0.46989538600000003</v>
-      </c>
+      <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="29"/>
       <c r="AF4" s="29"/>
@@ -1222,9 +1201,7 @@
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
-      <c r="AC5">
-        <v>0.43413167800000002</v>
-      </c>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
@@ -1238,9 +1215,7 @@
       <c r="AN5" s="13"/>
       <c r="AO5" s="13"/>
       <c r="AP5" s="13"/>
-      <c r="AQ5" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
@@ -1294,9 +1269,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
-      <c r="AC6">
-        <v>0.49473129399999999</v>
-      </c>
+      <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
@@ -1364,9 +1337,7 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
-      <c r="AC7">
-        <v>0.53645562000000002</v>
-      </c>
+      <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
@@ -1432,9 +1403,7 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
-      <c r="AC8">
-        <v>0.45300696800000001</v>
-      </c>
+      <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
@@ -1448,9 +1417,6 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
       <c r="AP8" s="13"/>
-      <c r="AQ8" s="10" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1503,9 +1469,7 @@
       <c r="Z9" s="27"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="28"/>
-      <c r="AC9">
-        <v>0.473869131</v>
-      </c>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="29"/>
       <c r="AF9" s="29"/>
@@ -1571,9 +1535,7 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="28"/>
-      <c r="AC10">
-        <v>0.55731778300000001</v>
-      </c>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="29"/>
@@ -1639,9 +1601,7 @@
       <c r="Z11" s="27"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="28"/>
-      <c r="AC11">
-        <v>0.56725214599999996</v>
-      </c>
+      <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="29"/>
@@ -1655,9 +1615,6 @@
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
       <c r="AP11" s="15"/>
-      <c r="AQ11" s="10" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="12" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1710,9 +1667,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="28"/>
-      <c r="AC12">
-        <v>0.53248187499999999</v>
-      </c>
+      <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="29"/>
       <c r="AF12" s="29"/>
@@ -1778,9 +1733,7 @@
       <c r="Z13" s="27"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="28"/>
-      <c r="AC13">
-        <v>0.507645966</v>
-      </c>
+      <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="29"/>
       <c r="AF13" s="29"/>
@@ -1846,9 +1799,7 @@
       <c r="Z14" s="27"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="28"/>
-      <c r="AC14">
-        <v>0.99399999999999999</v>
-      </c>
+      <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
@@ -1914,9 +1865,7 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="28"/>
-      <c r="AC15">
-        <v>0.96799999999999997</v>
-      </c>
+      <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="29"/>
       <c r="AF15" s="29"/>
@@ -1982,9 +1931,7 @@
       <c r="Z16" s="27"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="28"/>
-      <c r="AC16">
-        <v>1.0009999999999999</v>
-      </c>
+      <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
